--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -451,799 +451,1077 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>009986</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>天弘创新领航混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>81.97</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>7.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010237</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>67.81</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.60</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010238</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>180031</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>100060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国高新技术产业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002692</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国创新科技混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001791</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001792</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000972</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>新华万银多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘互联网灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004756</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004757</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>59.51</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009863</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国创新趋势股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>95.67</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007345</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>98.95</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005794</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银华心怡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1552,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009606</t>
+          <t>009863</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长信稳健精选混合A</t>
+          <t>富国创新趋势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>107.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009607</t>
+          <t>100060</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信稳健精选混合C</t>
+          <t>富国高新技术产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>76.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003659</t>
+          <t>180031</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>山西证券策略精选灵活配置混合</t>
+          <t>银华中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>54.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501077</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+          <t>南方成份精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>38.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010328</t>
+          <t>501077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合A</t>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010329</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合C</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9358</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009863</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国创新趋势股票</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>550002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>信诚精萃成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009987</t>
+          <t>519651</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘创新领航混合C</t>
+          <t>银河转型增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.44</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320018</t>
+          <t>010328</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺安新动力混合</t>
+          <t>博时荣华灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>010495</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>创金合信创新驱动股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1602,25 +2000,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>009606</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>长信稳健精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010495</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票A</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010496</t>
+          <t>008709</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票C</t>
+          <t>银河龙头精选股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>004756</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>国寿安保稳吉混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1714,25 +2152,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100060</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国高新技术产业混合</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>诺安新动力混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519651</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>银河转型增长主题灵活配置混合</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>550002</t>
+          <t>009607</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信诚精萃成长混合</t>
+          <t>长信稳健精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008709</t>
+          <t>970015</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>银河龙头精选股票</t>
+          <t>申万宏源红利成长灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>60.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>180031</t>
+          <t>004757</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>银华中小盘精选混合</t>
+          <t>国寿安保稳吉混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>003659</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方成份精选混合</t>
+          <t>山西证券策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004756</t>
+          <t>010329</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合A</t>
+          <t>博时荣华灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23.68</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004757</t>
+          <t>010496</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合C</t>
+          <t>创金合信创新驱动股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23.68</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>970015</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>申万宏源红利成长灵活配置混合</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>60.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2529,4 +2530,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1124</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>206004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3270,4 +3271,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>341.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3707,4 +3708,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3716,7 +3717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3727,17 +3728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3747,14 +3768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.92</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3763,14 +3806,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.3</v>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3779,14 +3844,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.19</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3795,13 +3882,2807 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7868</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>32.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6581,7 +6582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6592,17 +6593,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6612,14 +6633,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.94</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6628,14 +6671,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.92</v>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6644,14 +6709,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.3</v>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6660,14 +6747,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.19</v>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6676,13 +6785,2029 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>32.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8690,7 +8691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8701,17 +8702,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8721,14 +8742,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.25</v>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8737,14 +8780,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.94</v>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8753,14 +8818,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.92</v>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8769,14 +8856,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.3</v>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8785,14 +8894,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.19</v>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8801,13 +8932,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>32.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>22.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>25.94</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>13.92</v>
+        <v>25.94</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.3</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>18.19</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>32.47</v>
       </c>
     </row>
@@ -600,6 +617,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3143,7 +3556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6007,7 +6420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6443,7 +6856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7183,7 +7596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8189,7 +8602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
+++ b/数据整理/stocks/A股/深证主板/002008-大族激光.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>22.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>25.94</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>13.92</v>
+        <v>25.94</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5.3</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>18.19</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1110 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>32.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3193</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -673,36 +1770,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>562500</t>
+          <t>159667</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证机器人ETF</t>
+          <t>国泰中证机床ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.2802</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1808,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159770</t>
+          <t>159663</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证机器人ETF</t>
+          <t>华夏中证机床ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.68</t>
+          <t>97.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0809</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1846,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>562500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信深圳科技指数（LOF）A</t>
+          <t>华夏中证机器人ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0506</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1884,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>562360</t>
+          <t>159770</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华中证机器人ETF</t>
+          <t>天弘中证机器人ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.23</t>
+          <t>99.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1922,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信深圳科技指数（LOF）C</t>
+          <t>安信深圳科技指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1960,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002068</t>
+          <t>562360</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合C</t>
+          <t>银华中证机器人ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55.14</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1998,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002023</t>
+          <t>013733</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红塔红土稳健回报灵活配置混合A</t>
+          <t>红塔红土盛丰混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>62.51</t>
+          <t>61.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2036,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400023</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方多策略灵活配置混合A</t>
+          <t>安信深圳科技指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>55.14</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -977,34 +2074,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002024</t>
+          <t>013734</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红塔红土稳健回报灵活配置混合C</t>
+          <t>红塔红土盛丰混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>62.51</t>
+          <t>61.27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1013,6 +2112,402 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1448,7 +2943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3556,7 +5051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6420,7 +7915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6856,7 +8351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7596,7 +9091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8600,1084 +10095,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国创新科技混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.6809</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009863</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国创新趋势股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>140.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.1037</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>180031</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.3711</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>100060</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国高新技术产业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.5555</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005794</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华心怡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>38.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.3193</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.7818</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007345</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9687</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘互联网灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9678</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9344</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1677</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010237</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0842</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004756</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0771</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001791</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0735</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>59.51</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0690</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004757</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国寿安保稳吉混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>28.72</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010238</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000972</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>新华万银多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001792</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成绝对收益策略混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>